--- a/розрахунок вартості шаблон бакалавр.xlsx
+++ b/розрахунок вартості шаблон бакалавр.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\8_семестр\диплом\term_paper_3d_grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F801A9E-00E3-4AED-BD8E-2854A759C2F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CF94D-2B5C-4D76-BC7F-EBC256D72610}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2923,7 +2923,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,11 +2999,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3036,11 +3036,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3073,11 +3073,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3110,11 +3110,11 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3147,11 +3147,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3184,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3258,11 +3258,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3295,11 +3295,11 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3332,11 +3332,11 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3369,11 +3369,11 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3406,11 +3406,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3443,11 +3443,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3480,11 +3480,11 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3517,11 +3517,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3554,11 +3554,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3591,11 +3591,11 @@
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3628,11 +3628,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3665,11 +3665,11 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3702,11 +3702,11 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3776,11 +3776,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3813,11 +3813,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3850,11 +3850,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3887,11 +3887,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3924,11 +3924,11 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3961,11 +3961,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3998,11 +3998,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4035,11 +4035,11 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4072,11 +4072,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4109,11 +4109,11 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4146,11 +4146,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4183,11 +4183,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4220,11 +4220,11 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4257,11 +4257,11 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4294,11 +4294,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4331,11 +4331,11 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4368,11 +4368,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4405,11 +4405,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4442,11 +4442,11 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4479,11 +4479,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4516,11 +4516,11 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4553,11 +4553,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4627,11 +4627,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4664,11 +4664,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4701,11 +4701,11 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4738,11 +4738,11 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4775,11 +4775,11 @@
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4812,11 +4812,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4849,11 +4849,11 @@
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4886,11 +4886,11 @@
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4923,11 +4923,11 @@
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4960,11 +4960,11 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I56" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -4997,11 +4997,11 @@
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5034,11 +5034,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5071,11 +5071,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5108,11 +5108,11 @@
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5145,11 +5145,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5182,11 +5182,11 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5219,11 +5219,11 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5256,11 +5256,11 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5293,11 +5293,11 @@
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5330,11 +5330,11 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5367,11 +5367,11 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5404,11 +5404,11 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5441,11 +5441,11 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5478,11 +5478,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5515,11 +5515,11 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5552,11 +5552,11 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5589,11 +5589,11 @@
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5626,11 +5626,11 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5663,11 +5663,11 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5700,11 +5700,11 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5737,11 +5737,11 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5774,11 +5774,11 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5811,11 +5811,11 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5848,11 +5848,11 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5885,11 +5885,11 @@
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I81" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5922,11 +5922,11 @@
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5959,11 +5959,11 @@
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -5996,11 +5996,11 @@
         <v>0</v>
       </c>
       <c r="H84" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
         <v>0</v>
       </c>
       <c r="H85" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6070,11 +6070,11 @@
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6107,11 +6107,11 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6144,11 +6144,11 @@
         <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6181,11 +6181,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6218,11 +6218,11 @@
         <v>0</v>
       </c>
       <c r="H90" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6255,11 +6255,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -6292,11 +6292,11 @@
         <v>0</v>
       </c>
       <c r="H92" s="1">
-        <f>'3-й курс'!$AB$2</f>
+        <f>('1-й курс'!$AB$2+'2-й курс'!$AB$2+'3-й курс'!$AB$2+'4-й курс'!$AB$2)/4</f>
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <f>'3-й курс'!$AC$2</f>
+        <f>('1-й курс'!$AC$2+'2-й курс'!$AC$2+'3-й курс'!$AC$2+'4-й курс'!$AC$2)/4</f>
         <v>0</v>
       </c>
     </row>

--- a/розрахунок вартості шаблон бакалавр.xlsx
+++ b/розрахунок вартості шаблон бакалавр.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\8_семестр\диплом\term_paper_3d_grade\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CF94D-2B5C-4D76-BC7F-EBC256D72610}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="13200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-й курс" sheetId="7" r:id="rId1"/>
@@ -18,13 +12,15 @@
     <sheet name="3-й курс" sheetId="4" r:id="rId3"/>
     <sheet name="4-й курс" sheetId="5" r:id="rId4"/>
     <sheet name="загальна вартість" sheetId="6" r:id="rId5"/>
+    <sheet name="рен групи" sheetId="10" r:id="rId6"/>
+    <sheet name="ціноутворення" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
   <si>
     <t>Контингент студентів</t>
   </si>
@@ -124,11 +120,48 @@
   <si>
     <t>усього витрат на студента</t>
   </si>
+  <si>
+    <t>вартість контракту за рік</t>
+  </si>
+  <si>
+    <t>кількість студентів-контрактників</t>
+  </si>
+  <si>
+    <t>загальна сума рентабельності групи</t>
+  </si>
+  <si>
+    <t>мінімальна кількість бюджетників для рентабельності групи</t>
+  </si>
+  <si>
+    <t>витрати на НПП з усіма нарахуваннями</t>
+  </si>
+  <si>
+    <t>Відсоток на зарплату НПП з усіма нарахуваннями</t>
+  </si>
+  <si>
+    <t>кількість студентів-бюджетників</t>
+  </si>
+  <si>
+    <t>річна вартість одного здобувача-бюджетника</t>
+  </si>
+  <si>
+    <t>річна мінімальна вартість однієї академічної групи</t>
+  </si>
+  <si>
+    <t>ціноутворення</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               контракт
+бюджет</t>
+  </si>
+  <si>
+    <t>ціна за рік навчання</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,11 +210,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,6 +288,68 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -240,7 +389,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -565,7 +714,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A693-4ED6-8043-7C85E98692E8}"/>
             </c:ext>
@@ -869,7 +1018,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A693-4ED6-8043-7C85E98692E8}"/>
             </c:ext>
@@ -1173,7 +1322,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A693-4ED6-8043-7C85E98692E8}"/>
             </c:ext>
@@ -1187,12 +1336,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92807535"/>
-        <c:axId val="99410175"/>
+        <c:axId val="47869440"/>
+        <c:axId val="149672448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92807535"/>
+        <c:axId val="47869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,10 +1381,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99410175"/>
+        <c:crossAx val="149672448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1242,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99410175"/>
+        <c:axId val="149672448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,10 +1440,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92807535"/>
+        <c:crossAx val="47869440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1307,6 +1457,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1332,20 +1483,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1369,7 +1520,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1378,562 +1529,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,7 +1551,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B71F02D-16BB-4DD1-8CD2-FB3377275437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B71F02D-16BB-4DD1-8CD2-FB3377275437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +1617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2055,26 +1650,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2107,23 +1685,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2299,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EDC2A7-8557-4844-89BD-D4E90F76530B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2433,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C6C1C9-4BE0-42EF-B270-8E18FFAAD612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2567,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2745,7 +2306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097DE100-1A72-44D2-B34E-8D802EAD06D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2919,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41ECE9A-CF81-4A99-9873-07B387EA162D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2934,6 +2495,7 @@
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -6303,16 +5865,2249 @@
   </sheetData>
   <conditionalFormatting sqref="G3:G92">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>70000</formula>
+      <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G92">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>35000</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E401"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" s="13" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <f>B4*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="16"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="16"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="16"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="16"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="16"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="16"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="16"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="16"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="16"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="16"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="16"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="16"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="16"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="16"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="16"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="16"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="16"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="16"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="16"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="16"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="16"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="16"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="16"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="16"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="16"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="16"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="16"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="16"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="16"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="16"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="16"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="16"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="16"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="16"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="16"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="16"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="16"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="16"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="16"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="16"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="16"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="16"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="16"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="16"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="16"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="16"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="16"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="16"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="16"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="16"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="16"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="16"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="16"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="16"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="16"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="16"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="16"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="16"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="16"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="16"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="16"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="16"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="16"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="16"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="16"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="16"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="16"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="16"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="16"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="16"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="16"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="16"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="16"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="16"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="16"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="16"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="16"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="16"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="16"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="16"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="16"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="16"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="16"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="16"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="16"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="16"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="16"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="16"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="16"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="16"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="16"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="16"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="16"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="16"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="16"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="16"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="16"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="16"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="16"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="16"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="16"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="16"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="16"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="16"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="16"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="16"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="16"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="16"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="16"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="16"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="16"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="16"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="16"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="16"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="16"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="16"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="16"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="16"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="16"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="16"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="16"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="16"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="16"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="16"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="16"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="16"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="16"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="16"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="16"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="16"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="16"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="16"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="16"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="16"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="16"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="16"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="16"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="16"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="16"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="16"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="16"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="16"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="16"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="16"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="16"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="16"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="16"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="16"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="16"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="16"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="16"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="16"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="16"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="16"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="16"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="16"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="16"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="16"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="16"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="16"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="16"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="16"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="16"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="16"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="16"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="16"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="16"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="16"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="16"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="16"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="16"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="16"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="16"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="16"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="16"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="16"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="16"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="16"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="16"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="16"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="16"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="16"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="16"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="16"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="16"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="16"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="16"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="16"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="16"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="16"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="16"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="16"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="16"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="16"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="16"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="16"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="16"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="16"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="16"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="16"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="16"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="16"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="16"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="16"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="16"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="16"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="16"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="16"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="16"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="16"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="16"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="16"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="16"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="16"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="16"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="16"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="16"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="16"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="16"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="16"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="16"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="16"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="16"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="16"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="16"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="16"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="16"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="16"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="16"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="16"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="16"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="16"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="16"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="16"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="16"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="16"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="16"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="16"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="16"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="16"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="16"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="16"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="16"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="16"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="16"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="16"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="16"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="16"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="16"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="16"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="16"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="16"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="16"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="16"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="16"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="16"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="16"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="16"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="16"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="16"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="16"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="16"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="16"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="16"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="16"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="16"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="16"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="16"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="16"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="16"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="16"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="16"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="16"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="16"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="16"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="16"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="16"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="16"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="16"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="16"/>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="16"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="16"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="16"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="16"/>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="16"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="16"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="16"/>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="16"/>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="16"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="16"/>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:ACO16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <f>'загальна вартість'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="2:769" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="2:769" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
+        <f>C5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="19"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19"/>
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="19"/>
+      <c r="CK5" s="19"/>
+      <c r="CL5" s="19"/>
+      <c r="CM5" s="19"/>
+      <c r="CN5" s="19"/>
+      <c r="CO5" s="19"/>
+      <c r="CP5" s="19"/>
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="19"/>
+      <c r="CS5" s="19"/>
+      <c r="CT5" s="19"/>
+      <c r="CU5" s="19"/>
+      <c r="CV5" s="19"/>
+      <c r="CW5" s="19"/>
+      <c r="CX5" s="19"/>
+      <c r="CY5" s="19"/>
+      <c r="CZ5" s="19"/>
+      <c r="DA5" s="19"/>
+      <c r="DB5" s="19"/>
+      <c r="DC5" s="19"/>
+      <c r="DD5" s="19"/>
+      <c r="DE5" s="19"/>
+      <c r="DF5" s="19"/>
+      <c r="DG5" s="19"/>
+      <c r="DH5" s="19"/>
+      <c r="DI5" s="19"/>
+      <c r="DJ5" s="19"/>
+      <c r="DK5" s="19"/>
+      <c r="DL5" s="19"/>
+      <c r="DM5" s="19"/>
+      <c r="DN5" s="19"/>
+      <c r="DO5" s="19"/>
+      <c r="DP5" s="19"/>
+      <c r="DQ5" s="19"/>
+      <c r="DR5" s="19"/>
+      <c r="DS5" s="19"/>
+      <c r="DT5" s="19"/>
+      <c r="DU5" s="19"/>
+      <c r="DV5" s="19"/>
+      <c r="DW5" s="19"/>
+      <c r="DX5" s="19"/>
+      <c r="DY5" s="19"/>
+      <c r="DZ5" s="19"/>
+      <c r="EA5" s="19"/>
+      <c r="EB5" s="19"/>
+      <c r="EC5" s="19"/>
+      <c r="ED5" s="19"/>
+      <c r="EE5" s="19"/>
+      <c r="EF5" s="19"/>
+      <c r="EG5" s="19"/>
+      <c r="EH5" s="19"/>
+      <c r="EI5" s="19"/>
+      <c r="EJ5" s="19"/>
+      <c r="EK5" s="19"/>
+      <c r="EL5" s="19"/>
+      <c r="EM5" s="19"/>
+      <c r="EN5" s="19"/>
+      <c r="EO5" s="19"/>
+      <c r="EP5" s="19"/>
+      <c r="EQ5" s="19"/>
+      <c r="ER5" s="19"/>
+      <c r="ES5" s="19"/>
+      <c r="ET5" s="19"/>
+      <c r="EU5" s="19"/>
+      <c r="EV5" s="19"/>
+      <c r="EW5" s="19"/>
+      <c r="EX5" s="19"/>
+      <c r="EY5" s="19"/>
+      <c r="EZ5" s="19"/>
+      <c r="FA5" s="19"/>
+      <c r="FB5" s="19"/>
+      <c r="FC5" s="19"/>
+      <c r="FD5" s="19"/>
+      <c r="FE5" s="19"/>
+      <c r="FF5" s="19"/>
+      <c r="FG5" s="19"/>
+      <c r="FH5" s="19"/>
+      <c r="FI5" s="19"/>
+      <c r="FJ5" s="19"/>
+      <c r="FK5" s="19"/>
+      <c r="FL5" s="19"/>
+      <c r="FM5" s="19"/>
+      <c r="FN5" s="19"/>
+      <c r="FO5" s="19"/>
+      <c r="FP5" s="19"/>
+      <c r="FQ5" s="19"/>
+      <c r="FR5" s="19"/>
+      <c r="FS5" s="19"/>
+      <c r="FT5" s="19"/>
+      <c r="FU5" s="19"/>
+      <c r="FV5" s="19"/>
+      <c r="FW5" s="19"/>
+      <c r="FX5" s="19"/>
+      <c r="FY5" s="19"/>
+      <c r="FZ5" s="19"/>
+      <c r="GA5" s="19"/>
+      <c r="GB5" s="19"/>
+      <c r="GC5" s="19"/>
+      <c r="GD5" s="19"/>
+      <c r="GE5" s="19"/>
+      <c r="GF5" s="19"/>
+      <c r="GG5" s="19"/>
+      <c r="GH5" s="19"/>
+      <c r="GI5" s="19"/>
+      <c r="GJ5" s="19"/>
+      <c r="GK5" s="19"/>
+      <c r="GL5" s="19"/>
+      <c r="GM5" s="19"/>
+      <c r="GN5" s="19"/>
+      <c r="GO5" s="19"/>
+      <c r="GP5" s="19"/>
+      <c r="GQ5" s="19"/>
+      <c r="GR5" s="19"/>
+      <c r="GS5" s="19"/>
+      <c r="GT5" s="19"/>
+      <c r="GU5" s="19"/>
+      <c r="GV5" s="19"/>
+      <c r="GW5" s="19"/>
+      <c r="GX5" s="19"/>
+      <c r="GY5" s="19"/>
+      <c r="GZ5" s="19"/>
+      <c r="HA5" s="19"/>
+      <c r="HB5" s="19"/>
+      <c r="HC5" s="19"/>
+      <c r="HD5" s="19"/>
+      <c r="HE5" s="19"/>
+      <c r="HF5" s="19"/>
+      <c r="HG5" s="19"/>
+      <c r="HH5" s="19"/>
+      <c r="HI5" s="19"/>
+      <c r="HJ5" s="19"/>
+      <c r="HK5" s="19"/>
+      <c r="HL5" s="19"/>
+      <c r="HM5" s="19"/>
+      <c r="HN5" s="19"/>
+      <c r="HO5" s="19"/>
+      <c r="HP5" s="19"/>
+      <c r="HQ5" s="19"/>
+      <c r="HR5" s="19"/>
+      <c r="HS5" s="19"/>
+      <c r="HT5" s="19"/>
+      <c r="HU5" s="19"/>
+      <c r="HV5" s="19"/>
+      <c r="HW5" s="19"/>
+      <c r="HX5" s="19"/>
+      <c r="HY5" s="19"/>
+      <c r="HZ5" s="19"/>
+      <c r="IA5" s="19"/>
+      <c r="IB5" s="19"/>
+      <c r="IC5" s="19"/>
+      <c r="ID5" s="19"/>
+      <c r="IE5" s="19"/>
+      <c r="IF5" s="19"/>
+      <c r="IG5" s="19"/>
+      <c r="IH5" s="19"/>
+      <c r="II5" s="19"/>
+      <c r="IJ5" s="19"/>
+      <c r="IK5" s="19"/>
+      <c r="IL5" s="19"/>
+      <c r="IM5" s="19"/>
+      <c r="IN5" s="19"/>
+      <c r="IO5" s="19"/>
+      <c r="IP5" s="19"/>
+      <c r="IQ5" s="19"/>
+      <c r="IR5" s="19"/>
+      <c r="IS5" s="19"/>
+      <c r="IT5" s="19"/>
+      <c r="IU5" s="19"/>
+      <c r="IV5" s="19"/>
+      <c r="IW5" s="19"/>
+      <c r="IX5" s="19"/>
+      <c r="IY5" s="19"/>
+      <c r="IZ5" s="19"/>
+      <c r="JA5" s="19"/>
+      <c r="JB5" s="19"/>
+      <c r="JC5" s="19"/>
+      <c r="JD5" s="19"/>
+      <c r="JE5" s="19"/>
+      <c r="JF5" s="19"/>
+      <c r="JG5" s="19"/>
+      <c r="JH5" s="19"/>
+      <c r="JI5" s="19"/>
+      <c r="JJ5" s="19"/>
+      <c r="JK5" s="19"/>
+      <c r="JL5" s="19"/>
+      <c r="JM5" s="19"/>
+      <c r="JN5" s="19"/>
+      <c r="JO5" s="19"/>
+      <c r="JP5" s="19"/>
+      <c r="JQ5" s="19"/>
+      <c r="JR5" s="19"/>
+      <c r="JS5" s="19"/>
+      <c r="JT5" s="19"/>
+      <c r="JU5" s="19"/>
+      <c r="JV5" s="19"/>
+      <c r="JW5" s="19"/>
+      <c r="JX5" s="19"/>
+      <c r="JY5" s="19"/>
+      <c r="JZ5" s="19"/>
+      <c r="KA5" s="19"/>
+      <c r="KB5" s="19"/>
+      <c r="KC5" s="19"/>
+      <c r="KD5" s="19"/>
+      <c r="KE5" s="19"/>
+      <c r="KF5" s="19"/>
+      <c r="KG5" s="19"/>
+      <c r="KH5" s="19"/>
+      <c r="KI5" s="19"/>
+      <c r="KJ5" s="19"/>
+      <c r="KK5" s="19"/>
+      <c r="KL5" s="19"/>
+      <c r="KM5" s="19"/>
+      <c r="KN5" s="19"/>
+      <c r="KO5" s="19"/>
+      <c r="KP5" s="19"/>
+      <c r="KQ5" s="19"/>
+      <c r="KR5" s="19"/>
+      <c r="KS5" s="19"/>
+      <c r="KT5" s="19"/>
+      <c r="KU5" s="19"/>
+      <c r="KV5" s="19"/>
+      <c r="KW5" s="19"/>
+      <c r="KX5" s="19"/>
+      <c r="KY5" s="19"/>
+      <c r="KZ5" s="19"/>
+      <c r="LA5" s="19"/>
+      <c r="LB5" s="19"/>
+      <c r="LC5" s="19"/>
+      <c r="LD5" s="19"/>
+      <c r="LE5" s="19"/>
+      <c r="LF5" s="19"/>
+      <c r="LG5" s="19"/>
+      <c r="LH5" s="19"/>
+      <c r="LI5" s="19"/>
+      <c r="LJ5" s="19"/>
+      <c r="LK5" s="19"/>
+      <c r="LL5" s="19"/>
+      <c r="LM5" s="19"/>
+      <c r="LN5" s="19"/>
+      <c r="LO5" s="19"/>
+      <c r="LP5" s="19"/>
+      <c r="LQ5" s="19"/>
+      <c r="LR5" s="19"/>
+      <c r="LS5" s="19"/>
+      <c r="LT5" s="19"/>
+      <c r="LU5" s="19"/>
+      <c r="LV5" s="19"/>
+      <c r="LW5" s="19"/>
+      <c r="LX5" s="19"/>
+      <c r="LY5" s="19"/>
+      <c r="LZ5" s="19"/>
+      <c r="MA5" s="19"/>
+      <c r="MB5" s="19"/>
+      <c r="MC5" s="19"/>
+      <c r="MD5" s="19"/>
+      <c r="ME5" s="19"/>
+      <c r="MF5" s="19"/>
+      <c r="MG5" s="19"/>
+      <c r="MH5" s="19"/>
+      <c r="MI5" s="19"/>
+      <c r="MJ5" s="19"/>
+      <c r="MK5" s="19"/>
+      <c r="ML5" s="19"/>
+      <c r="MM5" s="19"/>
+      <c r="MN5" s="19"/>
+      <c r="MO5" s="19"/>
+      <c r="MP5" s="19"/>
+      <c r="MQ5" s="19"/>
+      <c r="MR5" s="19"/>
+      <c r="MS5" s="19"/>
+      <c r="MT5" s="19"/>
+      <c r="MU5" s="19"/>
+      <c r="MV5" s="19"/>
+      <c r="MW5" s="19"/>
+      <c r="MX5" s="19"/>
+      <c r="MY5" s="19"/>
+      <c r="MZ5" s="19"/>
+      <c r="NA5" s="19"/>
+      <c r="NB5" s="19"/>
+      <c r="NC5" s="19"/>
+      <c r="ND5" s="19"/>
+      <c r="NE5" s="19"/>
+      <c r="NF5" s="19"/>
+      <c r="NG5" s="19"/>
+      <c r="NH5" s="19"/>
+      <c r="NI5" s="19"/>
+      <c r="NJ5" s="19"/>
+      <c r="NK5" s="19"/>
+      <c r="NL5" s="19"/>
+      <c r="NM5" s="19"/>
+      <c r="NN5" s="19"/>
+      <c r="NO5" s="19"/>
+      <c r="NP5" s="19"/>
+      <c r="NQ5" s="19"/>
+      <c r="NR5" s="19"/>
+      <c r="NS5" s="19"/>
+      <c r="NT5" s="19"/>
+      <c r="NU5" s="19"/>
+      <c r="NV5" s="19"/>
+      <c r="NW5" s="19"/>
+      <c r="NX5" s="19"/>
+      <c r="NY5" s="19"/>
+      <c r="NZ5" s="19"/>
+      <c r="OA5" s="19"/>
+      <c r="OB5" s="19"/>
+      <c r="OC5" s="19"/>
+      <c r="OD5" s="19"/>
+      <c r="OE5" s="19"/>
+      <c r="OF5" s="19"/>
+      <c r="OG5" s="19"/>
+      <c r="OH5" s="19"/>
+      <c r="OI5" s="19"/>
+      <c r="OJ5" s="19"/>
+      <c r="OK5" s="19"/>
+      <c r="OL5" s="19"/>
+      <c r="OM5" s="19"/>
+      <c r="ON5" s="19"/>
+      <c r="OO5" s="19"/>
+      <c r="OP5" s="19"/>
+      <c r="OQ5" s="19"/>
+      <c r="OR5" s="19"/>
+      <c r="OS5" s="19"/>
+      <c r="OT5" s="19"/>
+      <c r="OU5" s="19"/>
+      <c r="OV5" s="19"/>
+      <c r="OW5" s="19"/>
+      <c r="OX5" s="19"/>
+      <c r="OY5" s="19"/>
+      <c r="OZ5" s="19"/>
+      <c r="PA5" s="19"/>
+      <c r="PB5" s="19"/>
+      <c r="PC5" s="19"/>
+      <c r="PD5" s="19"/>
+      <c r="PE5" s="19"/>
+      <c r="PF5" s="19"/>
+      <c r="PG5" s="19"/>
+      <c r="PH5" s="19"/>
+      <c r="PI5" s="19"/>
+      <c r="PJ5" s="19"/>
+      <c r="PK5" s="19"/>
+      <c r="PL5" s="19"/>
+      <c r="PM5" s="19"/>
+      <c r="PN5" s="19"/>
+      <c r="PO5" s="19"/>
+      <c r="PP5" s="19"/>
+      <c r="PQ5" s="19"/>
+      <c r="PR5" s="19"/>
+      <c r="PS5" s="19"/>
+      <c r="PT5" s="19"/>
+      <c r="PU5" s="19"/>
+      <c r="PV5" s="19"/>
+      <c r="PW5" s="19"/>
+      <c r="PX5" s="19"/>
+      <c r="PY5" s="19"/>
+      <c r="PZ5" s="19"/>
+      <c r="QA5" s="19"/>
+      <c r="QB5" s="19"/>
+      <c r="QC5" s="19"/>
+      <c r="QD5" s="19"/>
+      <c r="QE5" s="19"/>
+      <c r="QF5" s="19"/>
+      <c r="QG5" s="19"/>
+      <c r="QH5" s="19"/>
+      <c r="QI5" s="19"/>
+      <c r="QJ5" s="19"/>
+      <c r="QK5" s="19"/>
+      <c r="QL5" s="19"/>
+      <c r="QM5" s="19"/>
+      <c r="QN5" s="19"/>
+      <c r="QO5" s="19"/>
+      <c r="QP5" s="19"/>
+      <c r="QQ5" s="19"/>
+      <c r="QR5" s="19"/>
+      <c r="QS5" s="19"/>
+      <c r="QT5" s="19"/>
+      <c r="QU5" s="19"/>
+      <c r="QV5" s="19"/>
+      <c r="QW5" s="19"/>
+      <c r="QX5" s="19"/>
+      <c r="QY5" s="19"/>
+      <c r="QZ5" s="19"/>
+      <c r="RA5" s="19"/>
+      <c r="RB5" s="19"/>
+      <c r="RC5" s="19"/>
+      <c r="RD5" s="19"/>
+      <c r="RE5" s="19"/>
+      <c r="RF5" s="19"/>
+      <c r="RG5" s="19"/>
+      <c r="RH5" s="19"/>
+      <c r="RI5" s="19"/>
+      <c r="RJ5" s="19"/>
+      <c r="RK5" s="19"/>
+      <c r="RL5" s="19"/>
+      <c r="RM5" s="19"/>
+      <c r="RN5" s="19"/>
+      <c r="RO5" s="19"/>
+      <c r="RP5" s="19"/>
+      <c r="RQ5" s="19"/>
+      <c r="RR5" s="19"/>
+      <c r="RS5" s="19"/>
+      <c r="RT5" s="19"/>
+      <c r="RU5" s="19"/>
+      <c r="RV5" s="19"/>
+      <c r="RW5" s="19"/>
+      <c r="RX5" s="19"/>
+      <c r="RY5" s="19"/>
+      <c r="RZ5" s="19"/>
+      <c r="SA5" s="19"/>
+      <c r="SB5" s="19"/>
+      <c r="SC5" s="19"/>
+      <c r="SD5" s="19"/>
+      <c r="SE5" s="19"/>
+      <c r="SF5" s="19"/>
+      <c r="SG5" s="19"/>
+      <c r="SH5" s="19"/>
+      <c r="SI5" s="19"/>
+      <c r="SJ5" s="19"/>
+      <c r="SK5" s="19"/>
+      <c r="SL5" s="19"/>
+      <c r="SM5" s="19"/>
+      <c r="SN5" s="19"/>
+      <c r="SO5" s="19"/>
+      <c r="SP5" s="19"/>
+      <c r="SQ5" s="19"/>
+      <c r="SR5" s="19"/>
+      <c r="SS5" s="19"/>
+      <c r="ST5" s="19"/>
+      <c r="SU5" s="19"/>
+      <c r="SV5" s="19"/>
+      <c r="SW5" s="19"/>
+      <c r="SX5" s="19"/>
+      <c r="SY5" s="19"/>
+      <c r="SZ5" s="19"/>
+      <c r="TA5" s="19"/>
+      <c r="TB5" s="19"/>
+      <c r="TC5" s="19"/>
+      <c r="TD5" s="19"/>
+      <c r="TE5" s="19"/>
+      <c r="TF5" s="19"/>
+      <c r="TG5" s="19"/>
+      <c r="TH5" s="19"/>
+      <c r="TI5" s="19"/>
+      <c r="TJ5" s="19"/>
+      <c r="TK5" s="19"/>
+      <c r="TL5" s="19"/>
+      <c r="TM5" s="19"/>
+      <c r="TN5" s="19"/>
+      <c r="TO5" s="19"/>
+      <c r="TP5" s="19"/>
+      <c r="TQ5" s="19"/>
+      <c r="TR5" s="19"/>
+      <c r="TS5" s="19"/>
+      <c r="TT5" s="19"/>
+      <c r="TU5" s="19"/>
+      <c r="TV5" s="19"/>
+      <c r="TW5" s="19"/>
+      <c r="TX5" s="19"/>
+      <c r="TY5" s="19"/>
+      <c r="TZ5" s="19"/>
+      <c r="UA5" s="19"/>
+      <c r="UB5" s="19"/>
+      <c r="UC5" s="19"/>
+      <c r="UD5" s="19"/>
+      <c r="UE5" s="19"/>
+      <c r="UF5" s="19"/>
+      <c r="UG5" s="19"/>
+      <c r="UH5" s="19"/>
+      <c r="UI5" s="19"/>
+      <c r="UJ5" s="19"/>
+      <c r="UK5" s="19"/>
+      <c r="UL5" s="19"/>
+      <c r="UM5" s="19"/>
+      <c r="UN5" s="19"/>
+      <c r="UO5" s="19"/>
+      <c r="UP5" s="19"/>
+      <c r="UQ5" s="19"/>
+      <c r="UR5" s="19"/>
+      <c r="US5" s="19"/>
+      <c r="UT5" s="19"/>
+      <c r="UU5" s="19"/>
+      <c r="UV5" s="19"/>
+      <c r="UW5" s="19"/>
+      <c r="UX5" s="19"/>
+      <c r="UY5" s="19"/>
+      <c r="UZ5" s="19"/>
+      <c r="VA5" s="19"/>
+      <c r="VB5" s="19"/>
+      <c r="VC5" s="19"/>
+      <c r="VD5" s="19"/>
+      <c r="VE5" s="19"/>
+      <c r="VF5" s="19"/>
+      <c r="VG5" s="19"/>
+      <c r="VH5" s="19"/>
+      <c r="VI5" s="19"/>
+      <c r="VJ5" s="19"/>
+      <c r="VK5" s="19"/>
+      <c r="VL5" s="19"/>
+      <c r="VM5" s="19"/>
+      <c r="VN5" s="19"/>
+      <c r="VO5" s="19"/>
+      <c r="VP5" s="19"/>
+      <c r="VQ5" s="19"/>
+      <c r="VR5" s="19"/>
+      <c r="VS5" s="19"/>
+      <c r="VT5" s="19"/>
+      <c r="VU5" s="19"/>
+      <c r="VV5" s="19"/>
+      <c r="VW5" s="19"/>
+      <c r="VX5" s="19"/>
+      <c r="VY5" s="19"/>
+      <c r="VZ5" s="19"/>
+      <c r="WA5" s="19"/>
+      <c r="WB5" s="19"/>
+      <c r="WC5" s="19"/>
+      <c r="WD5" s="19"/>
+      <c r="WE5" s="19"/>
+      <c r="WF5" s="19"/>
+      <c r="WG5" s="19"/>
+      <c r="WH5" s="19"/>
+      <c r="WI5" s="19"/>
+      <c r="WJ5" s="19"/>
+      <c r="WK5" s="19"/>
+      <c r="WL5" s="19"/>
+      <c r="WM5" s="19"/>
+      <c r="WN5" s="19"/>
+      <c r="WO5" s="19"/>
+      <c r="WP5" s="19"/>
+      <c r="WQ5" s="19"/>
+      <c r="WR5" s="19"/>
+      <c r="WS5" s="19"/>
+      <c r="WT5" s="19"/>
+      <c r="WU5" s="19"/>
+      <c r="WV5" s="19"/>
+      <c r="WW5" s="19"/>
+      <c r="WX5" s="19"/>
+      <c r="WY5" s="19"/>
+      <c r="WZ5" s="19"/>
+      <c r="XA5" s="19"/>
+      <c r="XB5" s="19"/>
+      <c r="XC5" s="19"/>
+      <c r="XD5" s="19"/>
+      <c r="XE5" s="19"/>
+      <c r="XF5" s="19"/>
+      <c r="XG5" s="19"/>
+      <c r="XH5" s="19"/>
+      <c r="XI5" s="19"/>
+      <c r="XJ5" s="19"/>
+      <c r="XK5" s="19"/>
+      <c r="XL5" s="19"/>
+      <c r="XM5" s="19"/>
+      <c r="XN5" s="19"/>
+      <c r="XO5" s="19"/>
+      <c r="XP5" s="19"/>
+      <c r="XQ5" s="19"/>
+      <c r="XR5" s="19"/>
+      <c r="XS5" s="19"/>
+      <c r="XT5" s="19"/>
+      <c r="XU5" s="19"/>
+      <c r="XV5" s="19"/>
+      <c r="XW5" s="19"/>
+      <c r="XX5" s="19"/>
+      <c r="XY5" s="19"/>
+      <c r="XZ5" s="19"/>
+      <c r="YA5" s="19"/>
+      <c r="YB5" s="19"/>
+      <c r="YC5" s="19"/>
+      <c r="YD5" s="19"/>
+      <c r="YE5" s="19"/>
+      <c r="YF5" s="19"/>
+      <c r="YG5" s="19"/>
+      <c r="YH5" s="19"/>
+      <c r="YI5" s="19"/>
+      <c r="YJ5" s="19"/>
+      <c r="YK5" s="19"/>
+      <c r="YL5" s="19"/>
+      <c r="YM5" s="19"/>
+      <c r="YN5" s="19"/>
+      <c r="YO5" s="19"/>
+      <c r="YP5" s="19"/>
+      <c r="YQ5" s="19"/>
+      <c r="YR5" s="19"/>
+      <c r="YS5" s="19"/>
+      <c r="YT5" s="19"/>
+      <c r="YU5" s="19"/>
+      <c r="YV5" s="19"/>
+      <c r="YW5" s="19"/>
+      <c r="YX5" s="19"/>
+      <c r="YY5" s="19"/>
+      <c r="YZ5" s="19"/>
+      <c r="ZA5" s="19"/>
+      <c r="ZB5" s="19"/>
+      <c r="ZC5" s="19"/>
+      <c r="ZD5" s="19"/>
+      <c r="ZE5" s="19"/>
+      <c r="ZF5" s="19"/>
+      <c r="ZG5" s="19"/>
+      <c r="ZH5" s="19"/>
+      <c r="ZI5" s="19"/>
+      <c r="ZJ5" s="19"/>
+      <c r="ZK5" s="19"/>
+      <c r="ZL5" s="19"/>
+      <c r="ZM5" s="19"/>
+      <c r="ZN5" s="19"/>
+      <c r="ZO5" s="19"/>
+      <c r="ZP5" s="19"/>
+      <c r="ZQ5" s="19"/>
+      <c r="ZR5" s="19"/>
+      <c r="ZS5" s="19"/>
+      <c r="ZT5" s="19"/>
+      <c r="ZU5" s="19"/>
+      <c r="ZV5" s="19"/>
+      <c r="ZW5" s="19"/>
+      <c r="ZX5" s="19"/>
+      <c r="ZY5" s="19"/>
+      <c r="ZZ5" s="19"/>
+      <c r="AAA5" s="19"/>
+      <c r="AAB5" s="19"/>
+      <c r="AAC5" s="19"/>
+      <c r="AAD5" s="19"/>
+      <c r="AAE5" s="19"/>
+      <c r="AAF5" s="19"/>
+      <c r="AAG5" s="19"/>
+      <c r="AAH5" s="19"/>
+      <c r="AAI5" s="19"/>
+      <c r="AAJ5" s="19"/>
+      <c r="AAK5" s="19"/>
+      <c r="AAL5" s="19"/>
+      <c r="AAM5" s="19"/>
+      <c r="AAN5" s="19"/>
+      <c r="AAO5" s="19"/>
+      <c r="AAP5" s="19"/>
+      <c r="AAQ5" s="19"/>
+      <c r="AAR5" s="19"/>
+      <c r="AAS5" s="19"/>
+      <c r="AAT5" s="19"/>
+      <c r="AAU5" s="19"/>
+      <c r="AAV5" s="19"/>
+      <c r="AAW5" s="19"/>
+      <c r="AAX5" s="19"/>
+      <c r="AAY5" s="19"/>
+      <c r="AAZ5" s="19"/>
+      <c r="ABA5" s="19"/>
+      <c r="ABB5" s="19"/>
+      <c r="ABC5" s="19"/>
+      <c r="ABD5" s="19"/>
+      <c r="ABE5" s="19"/>
+      <c r="ABF5" s="19"/>
+      <c r="ABG5" s="19"/>
+      <c r="ABH5" s="19"/>
+      <c r="ABI5" s="19"/>
+      <c r="ABJ5" s="19"/>
+      <c r="ABK5" s="19"/>
+      <c r="ABL5" s="19"/>
+      <c r="ABM5" s="19"/>
+      <c r="ABN5" s="19"/>
+      <c r="ABO5" s="19"/>
+      <c r="ABP5" s="19"/>
+      <c r="ABQ5" s="19"/>
+      <c r="ABR5" s="19"/>
+      <c r="ABS5" s="19"/>
+      <c r="ABT5" s="19"/>
+      <c r="ABU5" s="19"/>
+      <c r="ABV5" s="19"/>
+      <c r="ABW5" s="19"/>
+      <c r="ABX5" s="19"/>
+      <c r="ABY5" s="19"/>
+      <c r="ABZ5" s="19"/>
+      <c r="ACA5" s="19"/>
+      <c r="ACB5" s="19"/>
+      <c r="ACC5" s="19"/>
+      <c r="ACD5" s="19"/>
+      <c r="ACE5" s="19"/>
+      <c r="ACF5" s="19"/>
+      <c r="ACG5" s="19"/>
+      <c r="ACH5" s="19"/>
+      <c r="ACI5" s="19"/>
+      <c r="ACJ5" s="19"/>
+      <c r="ACK5" s="19"/>
+      <c r="ACL5" s="19"/>
+      <c r="ACM5" s="19"/>
+      <c r="ACN5" s="19"/>
+      <c r="ACO5" s="19"/>
+    </row>
+    <row r="6" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="2:769" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>